--- a/rllab-taewoo/문제점.xlsx
+++ b/rllab-taewoo/문제점.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>python</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -34,14 +34,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>유니티 연결 대기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>초기화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>연결</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -54,31 +46,71 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>step 진행 불가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유니티 멈춤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>초기화(send parameter)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>연걸됨(receive parameter)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>유니티 안 멈춤(현재는 연결되지 않았기 때문?)</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>academyParameters 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>academyParameters 보내기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>academyParameters 수신 대기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>academyParameters 수신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>academyParameters 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>◢</t>
+  </si>
+  <si>
+    <t>self.env</t>
+  </si>
+  <si>
+    <t>&lt;sandbox.rocky.tf.envs.base.TfEnv object at 0x0000026996791630&gt;</t>
+  </si>
+  <si>
+    <t>TfEnv</t>
+  </si>
+  <si>
+    <t>wrapped_env</t>
+  </si>
+  <si>
+    <t>&lt;rllab.envs.normalized_env.NormalizedEnv object at 0x0000026996782A20&gt;</t>
+  </si>
+  <si>
+    <t>NormalizedEnv</t>
+  </si>
+  <si>
+    <t>&lt;rllab.envs.unity_env.UnityGymEnv object at 0x000002699672FF28&gt;</t>
+  </si>
+  <si>
+    <t>UnityGymEnv</t>
+  </si>
+  <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>&lt;gym_unity.envs.unity_env.UnityEnv object at 0x00000269966A8438&gt;</t>
+  </si>
+  <si>
+    <t>UnityEnv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +134,19 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -111,12 +156,34 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -125,15 +192,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,99 +512,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J1">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -538,12 +623,75 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="125.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -555,7 +703,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
